--- a/mosip_master/xlsx/reg_center_type.xlsx
+++ b/mosip_master/xlsx/reg_center_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -59,15 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">Centre dinscription régulière</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عادي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مركز التسجيل العادي</t>
   </si>
 </sst>
 </file>
@@ -158,7 +149,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,10 +168,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -200,16 +187,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4:D4"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.06"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
   </cols>
   <sheetData>
@@ -261,23 +246,6 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/mosip_master/xlsx/reg_center_type.xlsx
+++ b/mosip_master/xlsx/reg_center_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -68,33 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">مركز التسجيل العادي</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನಿಯಮಿತ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನಿಯಮಿತ ನೋಂದಣಿ ಕೇಂದ್ರ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नियमित</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नियमित पंजीकरण केंद्र</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">வழக்கமான</t>
-  </si>
-  <si>
-    <t xml:space="preserve">வழக்கமான பதிவு மையம்</t>
   </si>
 </sst>
 </file>
@@ -185,7 +158,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,10 +181,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -231,10 +200,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -312,57 +281,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
